--- a/src/gatourism/data_C_fix.xlsx
+++ b/src/gatourism/data_C_fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8774F9-0DA6-4FE9-AFCF-EC93A4B868DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1824E81A-A65D-441F-8F6D-CDC531848808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="2520" windowWidth="17256" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -168,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L180"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -589,8 +592,9 @@
       <c r="L3" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -627,8 +631,9 @@
       <c r="L4" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -665,8 +670,9 @@
       <c r="L5" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -703,8 +709,9 @@
       <c r="L6" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -741,8 +748,9 @@
       <c r="L7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -779,8 +787,9 @@
       <c r="L8" s="6">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -817,8 +826,9 @@
       <c r="L9" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -855,8 +865,9 @@
       <c r="L10" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -893,8 +904,9 @@
       <c r="L11" s="6">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -931,8 +943,9 @@
       <c r="L12" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -969,8 +982,9 @@
       <c r="L13" s="6">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1007,8 +1021,9 @@
       <c r="L14" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1045,8 +1060,9 @@
       <c r="L15" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1083,8 +1099,9 @@
       <c r="L16" s="6">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1121,8 +1138,9 @@
       <c r="L17" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1157,10 +1175,11 @@
         <v>3.1</v>
       </c>
       <c r="L18" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1195,10 +1214,11 @@
         <v>3.7</v>
       </c>
       <c r="L19" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1235,8 +1255,9 @@
       <c r="L20" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1271,10 +1292,11 @@
         <v>1.5</v>
       </c>
       <c r="L21" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1311,8 +1333,9 @@
       <c r="L22" s="6">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1347,10 +1370,11 @@
         <v>1.7</v>
       </c>
       <c r="L23" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1385,10 +1409,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L24" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1423,10 +1448,11 @@
         <v>3.6</v>
       </c>
       <c r="L25" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1461,10 +1487,11 @@
         <v>2.1</v>
       </c>
       <c r="L26" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1499,10 +1526,11 @@
         <v>1.9</v>
       </c>
       <c r="L27" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1537,10 +1565,11 @@
         <v>1.4</v>
       </c>
       <c r="L28" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1575,10 +1604,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L29" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1613,10 +1643,11 @@
         <v>1.5</v>
       </c>
       <c r="L30" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1651,10 +1682,11 @@
         <v>2</v>
       </c>
       <c r="L31" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1691,8 +1723,9 @@
       <c r="L32" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1727,10 +1760,11 @@
         <v>2.7</v>
       </c>
       <c r="L33" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1765,10 +1799,11 @@
         <v>3.7</v>
       </c>
       <c r="L34" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1803,10 +1838,11 @@
         <v>2.7</v>
       </c>
       <c r="L35" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1843,8 +1879,9 @@
       <c r="L36" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1881,8 +1918,9 @@
       <c r="L37" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1917,10 +1955,11 @@
         <v>2.8</v>
       </c>
       <c r="L38" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1955,10 +1994,11 @@
         <v>3.8</v>
       </c>
       <c r="L39" s="6">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1993,10 +2033,11 @@
         <v>3.7</v>
       </c>
       <c r="L40" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2031,10 +2072,11 @@
         <v>4.5</v>
       </c>
       <c r="L41" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2069,10 +2111,11 @@
         <v>2.1</v>
       </c>
       <c r="L42" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2107,10 +2150,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L43" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2147,8 +2191,9 @@
       <c r="L44" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2183,10 +2228,11 @@
         <v>1.6</v>
       </c>
       <c r="L45" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2221,10 +2267,11 @@
         <v>2.1</v>
       </c>
       <c r="L46" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2259,10 +2306,11 @@
         <v>1.8</v>
       </c>
       <c r="L47" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2297,10 +2345,11 @@
         <v>2.9</v>
       </c>
       <c r="L48" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2335,10 +2384,11 @@
         <v>1.5</v>
       </c>
       <c r="L49" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2373,10 +2423,11 @@
         <v>3</v>
       </c>
       <c r="L50" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2413,8 +2464,9 @@
       <c r="L51" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2449,10 +2501,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L52" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2489,8 +2542,9 @@
       <c r="L53" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2527,8 +2581,9 @@
       <c r="L54" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2563,10 +2618,11 @@
         <v>2.7</v>
       </c>
       <c r="L55" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2601,10 +2657,11 @@
         <v>3.2</v>
       </c>
       <c r="L56" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2639,10 +2696,11 @@
         <v>2.8</v>
       </c>
       <c r="L57" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2677,10 +2735,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L58" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2715,10 +2774,11 @@
         <v>3.5</v>
       </c>
       <c r="L59" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -2755,8 +2815,9 @@
       <c r="L60" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2791,10 +2852,11 @@
         <v>2.1</v>
       </c>
       <c r="L61" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2829,10 +2891,11 @@
         <v>2</v>
       </c>
       <c r="L62" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2867,10 +2930,11 @@
         <v>1.9</v>
       </c>
       <c r="L63" s="6">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2905,10 +2969,11 @@
         <v>1.3</v>
       </c>
       <c r="L64" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.9</v>
+      </c>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2943,10 +3008,11 @@
         <v>1.2</v>
       </c>
       <c r="L65" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2981,10 +3047,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L66" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3019,10 +3086,11 @@
         <v>3.7</v>
       </c>
       <c r="L67" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3057,10 +3125,11 @@
         <v>2</v>
       </c>
       <c r="L68" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3095,10 +3164,11 @@
         <v>1.9</v>
       </c>
       <c r="L69" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3133,10 +3203,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L70" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3173,8 +3244,9 @@
       <c r="L71" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3211,8 +3283,9 @@
       <c r="L72" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3249,8 +3322,9 @@
       <c r="L73" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3285,10 +3359,11 @@
         <v>3.9</v>
       </c>
       <c r="L74" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3323,10 +3398,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L75" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -3361,10 +3437,11 @@
         <v>2.8</v>
       </c>
       <c r="L76" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3401,8 +3478,9 @@
       <c r="L77" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3437,10 +3515,11 @@
         <v>1.6</v>
       </c>
       <c r="L78" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -3475,10 +3554,11 @@
         <v>1.4</v>
       </c>
       <c r="L79" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -3513,10 +3593,11 @@
         <v>4.5</v>
       </c>
       <c r="L80" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3551,10 +3632,11 @@
         <v>1.4</v>
       </c>
       <c r="L81" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3589,10 +3671,11 @@
         <v>4.2</v>
       </c>
       <c r="L82" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -3627,10 +3710,11 @@
         <v>1.7</v>
       </c>
       <c r="L83" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3665,10 +3749,11 @@
         <v>3.7</v>
       </c>
       <c r="L84" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3703,10 +3788,11 @@
         <v>2</v>
       </c>
       <c r="L85" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -3741,10 +3827,11 @@
         <v>2.5</v>
       </c>
       <c r="L86" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3779,10 +3866,11 @@
         <v>3.4</v>
       </c>
       <c r="L87" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3817,10 +3905,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L88" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -3855,10 +3944,11 @@
         <v>1.9</v>
       </c>
       <c r="L89" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3893,10 +3983,11 @@
         <v>5</v>
       </c>
       <c r="L90" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3931,10 +4022,11 @@
         <v>5</v>
       </c>
       <c r="L91" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -3971,8 +4063,9 @@
       <c r="L92" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4007,10 +4100,11 @@
         <v>2.4</v>
       </c>
       <c r="L93" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4045,10 +4139,11 @@
         <v>3.3</v>
       </c>
       <c r="L94" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4083,10 +4178,11 @@
         <v>1.7</v>
       </c>
       <c r="L95" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4121,10 +4217,11 @@
         <v>1.9</v>
       </c>
       <c r="L96" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4159,10 +4256,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4197,10 +4295,11 @@
         <v>1</v>
       </c>
       <c r="L98" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4235,10 +4334,11 @@
         <v>1.8</v>
       </c>
       <c r="L99" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4273,10 +4373,11 @@
         <v>3.3</v>
       </c>
       <c r="L100" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4313,8 +4414,9 @@
       <c r="L101" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4349,10 +4451,11 @@
         <v>1.8</v>
       </c>
       <c r="L102" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4389,8 +4492,9 @@
       <c r="L103" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4425,10 +4529,11 @@
         <v>1.5</v>
       </c>
       <c r="L104" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4463,10 +4568,11 @@
         <v>2.1</v>
       </c>
       <c r="L105" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4501,10 +4607,11 @@
         <v>3.8</v>
       </c>
       <c r="L106" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4539,10 +4646,11 @@
         <v>1.4</v>
       </c>
       <c r="L107" s="6">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4577,10 +4685,11 @@
         <v>3.3</v>
       </c>
       <c r="L108" s="6">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.1</v>
+      </c>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4615,10 +4724,11 @@
         <v>4.2</v>
       </c>
       <c r="L109" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4653,10 +4763,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L110" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4691,10 +4802,11 @@
         <v>1.8</v>
       </c>
       <c r="L111" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4729,10 +4841,11 @@
         <v>4.5</v>
       </c>
       <c r="L112" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4767,10 +4880,11 @@
         <v>4.2</v>
       </c>
       <c r="L113" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4805,10 +4919,11 @@
         <v>3.1</v>
       </c>
       <c r="L114" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -4843,10 +4958,11 @@
         <v>1.5</v>
       </c>
       <c r="L115" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4881,10 +4997,11 @@
         <v>1.4</v>
       </c>
       <c r="L116" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4919,10 +5036,11 @@
         <v>3</v>
       </c>
       <c r="L117" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -4957,10 +5075,11 @@
         <v>4.7</v>
       </c>
       <c r="L118" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -4995,10 +5114,11 @@
         <v>3</v>
       </c>
       <c r="L119" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5033,10 +5153,11 @@
         <v>3.1</v>
       </c>
       <c r="L120" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5071,10 +5192,11 @@
         <v>3.7</v>
       </c>
       <c r="L121" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -5111,8 +5233,9 @@
       <c r="L122" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5147,10 +5270,11 @@
         <v>1.6</v>
       </c>
       <c r="L123" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5185,10 +5309,11 @@
         <v>1.8</v>
       </c>
       <c r="L124" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -5223,10 +5348,11 @@
         <v>3.1</v>
       </c>
       <c r="L125" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5263,8 +5389,9 @@
       <c r="L126" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5301,8 +5428,9 @@
       <c r="L127" s="6">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -5337,10 +5465,11 @@
         <v>3.6</v>
       </c>
       <c r="L128" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5375,10 +5504,11 @@
         <v>2.1</v>
       </c>
       <c r="L129" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5413,10 +5543,11 @@
         <v>3.3</v>
       </c>
       <c r="L130" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -5451,10 +5582,11 @@
         <v>3.5</v>
       </c>
       <c r="L131" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -5489,10 +5621,11 @@
         <v>1.6</v>
       </c>
       <c r="L132" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5527,10 +5660,11 @@
         <v>2.4</v>
       </c>
       <c r="L133" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5565,10 +5699,11 @@
         <v>2.9</v>
       </c>
       <c r="L134" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -5603,10 +5738,11 @@
         <v>1</v>
       </c>
       <c r="L135" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5641,10 +5777,11 @@
         <v>2.1</v>
       </c>
       <c r="L136" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5679,10 +5816,11 @@
         <v>1.5</v>
       </c>
       <c r="L137" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -5717,10 +5855,11 @@
         <v>1.4</v>
       </c>
       <c r="L138" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5755,10 +5894,11 @@
         <v>1</v>
       </c>
       <c r="L139" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5793,10 +5933,11 @@
         <v>1.3</v>
       </c>
       <c r="L140" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -5831,10 +5972,11 @@
         <v>1.4</v>
       </c>
       <c r="L141" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5869,10 +6011,11 @@
         <v>4.8</v>
       </c>
       <c r="L142" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5907,10 +6050,11 @@
         <v>2</v>
       </c>
       <c r="L143" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -5945,10 +6089,11 @@
         <v>1.8</v>
       </c>
       <c r="L144" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -5983,10 +6128,11 @@
         <v>4.2</v>
       </c>
       <c r="L145" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6021,10 +6167,11 @@
         <v>1.9</v>
       </c>
       <c r="L146" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6059,10 +6206,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L147" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -6097,10 +6245,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L148" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6135,10 +6284,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L149" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6173,10 +6323,11 @@
         <v>1.5</v>
       </c>
       <c r="L150" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -6213,8 +6364,9 @@
       <c r="L151" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6251,8 +6403,9 @@
       <c r="L152" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6287,10 +6440,11 @@
         <v>3.8</v>
       </c>
       <c r="L153" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -6325,10 +6479,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L154" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6363,10 +6518,11 @@
         <v>1.7</v>
       </c>
       <c r="L155" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6401,10 +6557,11 @@
         <v>2</v>
       </c>
       <c r="L156" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -6439,10 +6596,11 @@
         <v>2.9</v>
       </c>
       <c r="L157" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -6477,10 +6635,11 @@
         <v>4.3</v>
       </c>
       <c r="L158" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6515,10 +6674,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L159" s="6">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.7</v>
+      </c>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6553,10 +6713,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L160" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -6591,10 +6752,11 @@
         <v>2.1</v>
       </c>
       <c r="L161" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6631,8 +6793,9 @@
       <c r="L162" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6667,10 +6830,11 @@
         <v>4.8</v>
       </c>
       <c r="L163" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -6705,10 +6869,11 @@
         <v>1.2</v>
       </c>
       <c r="L164" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6743,10 +6908,11 @@
         <v>4.3</v>
       </c>
       <c r="L165" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6781,10 +6947,11 @@
         <v>1.3</v>
       </c>
       <c r="L166" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -6821,8 +6988,9 @@
       <c r="L167" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6857,10 +7025,11 @@
         <v>4.5</v>
       </c>
       <c r="L168" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6895,10 +7064,11 @@
         <v>2</v>
       </c>
       <c r="L169" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -6933,10 +7103,11 @@
         <v>2</v>
       </c>
       <c r="L170" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -6973,8 +7144,9 @@
       <c r="L171" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7009,10 +7181,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L172" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7047,10 +7220,11 @@
         <v>3.1</v>
       </c>
       <c r="L173" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M173" s="6"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -7085,10 +7259,11 @@
         <v>1.4</v>
       </c>
       <c r="L174" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7123,10 +7298,11 @@
         <v>1.8</v>
       </c>
       <c r="L175" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M175" s="6"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7161,10 +7337,11 @@
         <v>2.4</v>
       </c>
       <c r="L176" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -7201,8 +7378,9 @@
       <c r="L177" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M177" s="6"/>
+    </row>
+    <row r="178" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7237,13 +7415,20 @@
         <v>1.9</v>
       </c>
       <c r="L178" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="7">
+        <v>177</v>
+      </c>
+      <c r="L179" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L179" s="6"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L180" s="6"/>
     </row>
   </sheetData>

--- a/src/gatourism/data_C_fix.xlsx
+++ b/src/gatourism/data_C_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tourism\Tourism\src\gatourism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1824E81A-A65D-441F-8F6D-CDC531848808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F4721-22A9-4855-99DF-80DAFC4749AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179:K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7423,6 +7423,36 @@
       <c r="A179" s="7">
         <v>177</v>
       </c>
+      <c r="B179">
+        <v>1.6</v>
+      </c>
+      <c r="C179">
+        <v>1.8</v>
+      </c>
+      <c r="D179">
+        <v>1.5</v>
+      </c>
+      <c r="E179">
+        <v>1.6</v>
+      </c>
+      <c r="F179">
+        <v>1.8</v>
+      </c>
+      <c r="G179">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H179">
+        <v>2.4</v>
+      </c>
+      <c r="I179">
+        <v>3.2</v>
+      </c>
+      <c r="J179">
+        <v>1.9</v>
+      </c>
+      <c r="K179">
+        <v>1.9</v>
+      </c>
       <c r="L179" s="6">
         <v>4.8</v>
       </c>
